--- a/BDs/BD/r+_BD_3.03w.xlsx
+++ b/BDs/BD/r+_BD_3.03w.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="79">
   <si>
     <t>ID</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>Dir_diagonal_std(%)</t>
+  </si>
+  <si>
+    <t>Dir_combined_std(%)</t>
   </si>
 </sst>
 </file>
@@ -7813,7 +7816,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V44"/>
+  <dimension ref="A1:W44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7830,10 +7833,10 @@
     <col min="16" max="16" width="9.140625" style="2"/>
     <col min="17" max="20" width="9.140625" style="3"/>
     <col min="21" max="21" width="9.140625" style="4"/>
-    <col min="22" max="22" width="9.140625" style="5"/>
+    <col min="22" max="23" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7900,8 +7903,11 @@
       <c r="V1" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -7968,8 +7974,11 @@
       <c r="V2" s="5">
         <v>0.2125277692327874</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2" s="5">
+        <v>0.2763067870310268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -8036,8 +8045,11 @@
       <c r="V3" s="5">
         <v>0.2076172879758582</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3" s="5">
+        <v>0.246507469781018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -8104,8 +8116,11 @@
       <c r="V4" s="5">
         <v>0.2053218838741526</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4" s="5">
+        <v>0.2748499835184527</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -8172,8 +8187,11 @@
       <c r="V5" s="5">
         <v>0.2610245384013307</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5" s="5">
+        <v>0.344175720566376</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -8240,8 +8258,11 @@
       <c r="V6" s="5">
         <v>0.2839018736202195</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6" s="5">
+        <v>0.327546505728481</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -8308,8 +8329,11 @@
       <c r="V7" s="5">
         <v>0.2113961630768381</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7" s="5">
+        <v>0.2683207505596211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -8376,8 +8400,11 @@
       <c r="V8" s="5">
         <v>0.1852373782743194</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8" s="5">
+        <v>0.2509665095916721</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -8444,8 +8471,11 @@
       <c r="V9" s="5">
         <v>0.2163735436712251</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9" s="5">
+        <v>0.2719859594452845</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -8512,8 +8542,11 @@
       <c r="V10" s="5">
         <v>0.1291729633146136</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10" s="5">
+        <v>0.504804693726185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -8580,8 +8613,11 @@
       <c r="V11" s="5">
         <v>0.224632459576441</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11" s="5">
+        <v>0.3796752412765464</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -8648,8 +8684,11 @@
       <c r="V12" s="5">
         <v>0.2506262585540887</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12" s="5">
+        <v>0.2557905849548173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -8716,8 +8755,11 @@
       <c r="V13" s="5">
         <v>0.20956194072793</v>
       </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13" s="5">
+        <v>0.2214535388331171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -8784,8 +8826,11 @@
       <c r="V14" s="5">
         <v>0.2899343261345355</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14" s="5">
+        <v>0.3032292379542618</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -8852,8 +8897,11 @@
       <c r="V15" s="5">
         <v>1.65284733801121</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15" s="5">
+        <v>2.07498383937144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -8920,8 +8968,11 @@
       <c r="V16" s="5">
         <v>0.9200870712029742</v>
       </c>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="W16" s="5">
+        <v>1.108829511829989</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -8988,8 +9039,11 @@
       <c r="V17" s="5">
         <v>0.2164065656765491</v>
       </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17" s="5">
+        <v>0.289163416616155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -9056,8 +9110,11 @@
       <c r="V18" s="5">
         <v>0.09845243399438622</v>
       </c>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18" s="5">
+        <v>0.2483718876947796</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -9124,8 +9181,11 @@
       <c r="V19" s="5">
         <v>0.1973588309257416</v>
       </c>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="W19" s="5">
+        <v>0.2877147591860916</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -9192,8 +9252,11 @@
       <c r="V20" s="5">
         <v>1.652605219589527</v>
       </c>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="W20" s="5">
+        <v>2.040214147509704</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -9260,8 +9323,11 @@
       <c r="V21" s="5">
         <v>0.8334404315584498</v>
       </c>
-    </row>
-    <row r="22" spans="1:22">
+      <c r="W21" s="5">
+        <v>0.9800567822061719</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -9328,8 +9394,11 @@
       <c r="V22" s="5">
         <v>0.4378429618314549</v>
       </c>
-    </row>
-    <row r="23" spans="1:22">
+      <c r="W22" s="5">
+        <v>0.5223122441719358</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -9396,8 +9465,11 @@
       <c r="V23" s="5">
         <v>0.1161866296260923</v>
       </c>
-    </row>
-    <row r="24" spans="1:22">
+      <c r="W23" s="5">
+        <v>0.2172517503013415</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -9464,8 +9536,11 @@
       <c r="V24" s="5">
         <v>0.3706892673455229</v>
       </c>
-    </row>
-    <row r="25" spans="1:22">
+      <c r="W24" s="5">
+        <v>0.5055588829436168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -9532,8 +9607,11 @@
       <c r="V25" s="5">
         <v>0.2307889780473734</v>
       </c>
-    </row>
-    <row r="26" spans="1:22">
+      <c r="W25" s="5">
+        <v>0.2545103304096837</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -9600,8 +9678,11 @@
       <c r="V26" s="5">
         <v>0.1611730740119946</v>
       </c>
-    </row>
-    <row r="27" spans="1:22">
+      <c r="W26" s="5">
+        <v>0.1895349088442705</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -9668,8 +9749,11 @@
       <c r="V27" s="5">
         <v>0.4185926131155764</v>
       </c>
-    </row>
-    <row r="28" spans="1:22">
+      <c r="W27" s="5">
+        <v>0.7018038348882115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -9736,8 +9820,11 @@
       <c r="V28" s="5">
         <v>0.4176632717858511</v>
       </c>
-    </row>
-    <row r="29" spans="1:22">
+      <c r="W28" s="5">
+        <v>0.7012349925884406</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -9804,8 +9891,11 @@
       <c r="V29" s="5">
         <v>0.4176632717858511</v>
       </c>
-    </row>
-    <row r="30" spans="1:22">
+      <c r="W29" s="5">
+        <v>0.7012349925884406</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -9872,8 +9962,11 @@
       <c r="V30" s="5">
         <v>0.2426464469191272</v>
       </c>
-    </row>
-    <row r="31" spans="1:22">
+      <c r="W30" s="5">
+        <v>0.31772218334316</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -9940,8 +10033,11 @@
       <c r="V31" s="5">
         <v>0.1876585294681143</v>
       </c>
-    </row>
-    <row r="32" spans="1:22">
+      <c r="W31" s="5">
+        <v>0.2982691714111689</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -10008,8 +10104,11 @@
       <c r="V32" s="5">
         <v>0.2859078969219227</v>
       </c>
-    </row>
-    <row r="33" spans="1:22">
+      <c r="W32" s="5">
+        <v>0.4082067753120878</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -10076,8 +10175,11 @@
       <c r="V33" s="5">
         <v>0.1395574250155782</v>
       </c>
-    </row>
-    <row r="34" spans="1:22">
+      <c r="W33" s="5">
+        <v>0.249154292539236</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -10144,8 +10246,11 @@
       <c r="V34" s="5">
         <v>0.2007096403714394</v>
       </c>
-    </row>
-    <row r="35" spans="1:22">
+      <c r="W34" s="5">
+        <v>0.3464725685339609</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
       <c r="A35" t="s">
         <v>47</v>
       </c>
@@ -10212,8 +10317,11 @@
       <c r="V35" s="5">
         <v>0.1493585865204644</v>
       </c>
-    </row>
-    <row r="36" spans="1:22">
+      <c r="W35" s="5">
+        <v>0.2136451858283901</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
       <c r="A36" t="s">
         <v>48</v>
       </c>
@@ -10280,8 +10388,11 @@
       <c r="V36" s="5">
         <v>0.1505412948004007</v>
       </c>
-    </row>
-    <row r="37" spans="1:22">
+      <c r="W36" s="5">
+        <v>0.2144772707559393</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -10348,8 +10459,11 @@
       <c r="V37" s="5">
         <v>0.1505412948004007</v>
       </c>
-    </row>
-    <row r="38" spans="1:22">
+      <c r="W37" s="5">
+        <v>0.2144772707559393</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
       <c r="A38" t="s">
         <v>50</v>
       </c>
@@ -10416,8 +10530,11 @@
       <c r="V38" s="5">
         <v>0.1505412948004007</v>
       </c>
-    </row>
-    <row r="39" spans="1:22">
+      <c r="W38" s="5">
+        <v>0.2144772707559393</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -10484,8 +10601,11 @@
       <c r="V39" s="5">
         <v>0.04852640301561804</v>
       </c>
-    </row>
-    <row r="40" spans="1:22">
+      <c r="W39" s="5">
+        <v>0.1447258596857739</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
       <c r="A40" t="s">
         <v>52</v>
       </c>
@@ -10552,8 +10672,11 @@
       <c r="V40" s="5">
         <v>1.958720663188502</v>
       </c>
-    </row>
-    <row r="41" spans="1:22">
+      <c r="W40" s="5">
+        <v>2.278276287830975</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
       <c r="A41" t="s">
         <v>53</v>
       </c>
@@ -10620,8 +10743,11 @@
       <c r="V41" s="5">
         <v>0.1739423139710065</v>
       </c>
-    </row>
-    <row r="42" spans="1:22">
+      <c r="W41" s="5">
+        <v>0.2139975796017448</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
       <c r="A42" t="s">
         <v>54</v>
       </c>
@@ -10688,8 +10814,11 @@
       <c r="V42" s="5">
         <v>0.9118582149011423</v>
       </c>
-    </row>
-    <row r="43" spans="1:22">
+      <c r="W42" s="5">
+        <v>1.02416144913719</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
       <c r="A43" t="s">
         <v>55</v>
       </c>
@@ -10756,8 +10885,11 @@
       <c r="V43" s="5">
         <v>0.7582795462014785</v>
       </c>
-    </row>
-    <row r="44" spans="1:22">
+      <c r="W43" s="5">
+        <v>0.8869567384546159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
       <c r="A44" t="s">
         <v>56</v>
       </c>
@@ -10823,6 +10955,9 @@
       </c>
       <c r="V44" s="5">
         <v>1.170105749776571</v>
+      </c>
+      <c r="W44" s="5">
+        <v>1.353149856148578</v>
       </c>
     </row>
   </sheetData>

--- a/BDs/BD/r+_BD_3.03w.xlsx
+++ b/BDs/BD/r+_BD_3.03w.xlsx
@@ -26788,13 +26788,13 @@
         <v>2.103908276344692E-14</v>
       </c>
       <c r="D58">
+        <v>9105</v>
+      </c>
+      <c r="E58">
         <v>8113</v>
       </c>
-      <c r="E58">
-        <v>9105</v>
-      </c>
       <c r="F58">
-        <v>-0.032733</v>
+        <v>0.032733</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -26808,13 +26808,13 @@
         <v>0.0001084150086441619</v>
       </c>
       <c r="D59">
+        <v>8592</v>
+      </c>
+      <c r="E59">
         <v>8113</v>
       </c>
-      <c r="E59">
-        <v>8592</v>
-      </c>
       <c r="F59">
-        <v>-0.015805</v>
+        <v>0.015805</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -26888,13 +26888,13 @@
         <v>1.064551230993515E-11</v>
       </c>
       <c r="D63">
+        <v>9118</v>
+      </c>
+      <c r="E63">
         <v>8235</v>
       </c>
-      <c r="E63">
-        <v>9118</v>
-      </c>
       <c r="F63">
-        <v>-0.029137</v>
+        <v>0.029137</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -26908,13 +26908,13 @@
         <v>0.002760141660447854</v>
       </c>
       <c r="D64">
+        <v>8596</v>
+      </c>
+      <c r="E64">
         <v>8235</v>
       </c>
-      <c r="E64">
-        <v>8596</v>
-      </c>
       <c r="F64">
-        <v>-0.011912</v>
+        <v>0.011912</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -26948,13 +26948,13 @@
         <v>0.006817941898646267</v>
       </c>
       <c r="D66">
+        <v>8897</v>
+      </c>
+      <c r="E66">
         <v>8570</v>
       </c>
-      <c r="E66">
-        <v>8897</v>
-      </c>
       <c r="F66">
-        <v>-0.01079</v>
+        <v>0.01079</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -27068,13 +27068,13 @@
         <v>0</v>
       </c>
       <c r="D72">
+        <v>11827</v>
+      </c>
+      <c r="E72">
         <v>0</v>
       </c>
-      <c r="E72">
-        <v>11827</v>
-      </c>
       <c r="F72">
-        <v>-0.390279</v>
+        <v>0.390279</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -27088,13 +27088,13 @@
         <v>0</v>
       </c>
       <c r="D73">
+        <v>9338</v>
+      </c>
+      <c r="E73">
         <v>0</v>
       </c>
-      <c r="E73">
-        <v>9338</v>
-      </c>
       <c r="F73">
-        <v>-0.308144</v>
+        <v>0.308144</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -27168,13 +27168,13 @@
         <v>0</v>
       </c>
       <c r="D77">
+        <v>11831</v>
+      </c>
+      <c r="E77">
         <v>0</v>
       </c>
-      <c r="E77">
-        <v>11831</v>
-      </c>
       <c r="F77">
-        <v>-0.390398</v>
+        <v>0.390398</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -27188,13 +27188,13 @@
         <v>0</v>
       </c>
       <c r="D78">
+        <v>9341</v>
+      </c>
+      <c r="E78">
         <v>0</v>
       </c>
-      <c r="E78">
-        <v>9341</v>
-      </c>
       <c r="F78">
-        <v>-0.308233</v>
+        <v>0.308233</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -27268,13 +27268,13 @@
         <v>0</v>
       </c>
       <c r="D82">
+        <v>11825</v>
+      </c>
+      <c r="E82">
         <v>0</v>
       </c>
-      <c r="E82">
-        <v>11825</v>
-      </c>
       <c r="F82">
-        <v>-0.3902</v>
+        <v>0.3902</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -27288,13 +27288,13 @@
         <v>0</v>
       </c>
       <c r="D83">
+        <v>9341</v>
+      </c>
+      <c r="E83">
         <v>0</v>
       </c>
-      <c r="E83">
-        <v>9341</v>
-      </c>
       <c r="F83">
-        <v>-0.308233</v>
+        <v>0.308233</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -27408,13 +27408,13 @@
         <v>3.603908742541876E-05</v>
       </c>
       <c r="D89">
+        <v>12037</v>
+      </c>
+      <c r="E89">
         <v>11428</v>
       </c>
-      <c r="E89">
-        <v>12037</v>
-      </c>
       <c r="F89">
-        <v>-0.020096</v>
+        <v>0.020096</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -27448,13 +27448,13 @@
         <v>0</v>
       </c>
       <c r="D91">
+        <v>12037</v>
+      </c>
+      <c r="E91">
         <v>0</v>
       </c>
-      <c r="E91">
-        <v>12037</v>
-      </c>
       <c r="F91">
-        <v>-0.397208</v>
+        <v>0.397208</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -27468,13 +27468,13 @@
         <v>0</v>
       </c>
       <c r="D92">
+        <v>9580</v>
+      </c>
+      <c r="E92">
         <v>0</v>
       </c>
-      <c r="E92">
-        <v>9580</v>
-      </c>
       <c r="F92">
-        <v>-0.31613</v>
+        <v>0.31613</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -27548,13 +27548,13 @@
         <v>0</v>
       </c>
       <c r="D96">
+        <v>11818</v>
+      </c>
+      <c r="E96">
         <v>0</v>
       </c>
-      <c r="E96">
-        <v>11818</v>
-      </c>
       <c r="F96">
-        <v>-0.389982</v>
+        <v>0.389982</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -27568,13 +27568,13 @@
         <v>0</v>
       </c>
       <c r="D97">
+        <v>9440</v>
+      </c>
+      <c r="E97">
         <v>0</v>
       </c>
-      <c r="E97">
-        <v>9440</v>
-      </c>
       <c r="F97">
-        <v>-0.31151</v>
+        <v>0.31151</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -28175,13 +28175,13 @@
         <v>1.726126681360326E-05</v>
       </c>
       <c r="D60">
+        <v>3769</v>
+      </c>
+      <c r="E60">
         <v>3417</v>
       </c>
-      <c r="E60">
-        <v>3769</v>
-      </c>
       <c r="F60">
-        <v>-0.011615</v>
+        <v>0.011615</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -28235,13 +28235,13 @@
         <v>0.003928883222957107</v>
       </c>
       <c r="D63">
+        <v>3696</v>
+      </c>
+      <c r="E63">
         <v>3470</v>
       </c>
-      <c r="E63">
-        <v>3696</v>
-      </c>
       <c r="F63">
-        <v>-0.007458</v>
+        <v>0.007458</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -28415,13 +28415,13 @@
         <v>0.002695991204637737</v>
       </c>
       <c r="D72">
+        <v>3442</v>
+      </c>
+      <c r="E72">
         <v>3214</v>
       </c>
-      <c r="E72">
-        <v>3442</v>
-      </c>
       <c r="F72">
-        <v>-0.007524</v>
+        <v>0.007524</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -29075,13 +29075,13 @@
         <v>0.001775712273863315</v>
       </c>
       <c r="D105">
+        <v>3173</v>
+      </c>
+      <c r="E105">
         <v>2944</v>
       </c>
-      <c r="E105">
-        <v>3173</v>
-      </c>
       <c r="F105">
-        <v>-0.007557</v>
+        <v>0.007557</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -29095,13 +29095,13 @@
         <v>5.459895418726911E-07</v>
       </c>
       <c r="D106">
+        <v>3331</v>
+      </c>
+      <c r="E106">
         <v>2944</v>
       </c>
-      <c r="E106">
-        <v>3331</v>
-      </c>
       <c r="F106">
-        <v>-0.012771</v>
+        <v>0.012771</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -29135,13 +29135,13 @@
         <v>8.035828020733009E-08</v>
       </c>
       <c r="D108">
+        <v>3331</v>
+      </c>
+      <c r="E108">
         <v>2916</v>
       </c>
-      <c r="E108">
-        <v>3331</v>
-      </c>
       <c r="F108">
-        <v>-0.013695</v>
+        <v>0.013695</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -29155,13 +29155,13 @@
         <v>0.002475241951704698</v>
       </c>
       <c r="D109">
+        <v>4648</v>
+      </c>
+      <c r="E109">
         <v>4380</v>
       </c>
-      <c r="E109">
-        <v>4648</v>
-      </c>
       <c r="F109">
-        <v>-0.008843999999999999</v>
+        <v>0.008843999999999999</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -29175,13 +29175,13 @@
         <v>0.0006977172246902918</v>
       </c>
       <c r="D110">
+        <v>4648</v>
+      </c>
+      <c r="E110">
         <v>4344</v>
       </c>
-      <c r="E110">
-        <v>4648</v>
-      </c>
       <c r="F110">
-        <v>-0.010032</v>
+        <v>0.010032</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -29195,13 +29195,13 @@
         <v>0.001775712273863315</v>
       </c>
       <c r="D111">
+        <v>3173</v>
+      </c>
+      <c r="E111">
         <v>2944</v>
       </c>
-      <c r="E111">
-        <v>3173</v>
-      </c>
       <c r="F111">
-        <v>-0.007557</v>
+        <v>0.007557</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -29215,13 +29215,13 @@
         <v>5.459895418726911E-07</v>
       </c>
       <c r="D112">
+        <v>3331</v>
+      </c>
+      <c r="E112">
         <v>2944</v>
       </c>
-      <c r="E112">
-        <v>3331</v>
-      </c>
       <c r="F112">
-        <v>-0.01277</v>
+        <v>0.01277</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -29255,13 +29255,13 @@
         <v>8.035828020733009E-08</v>
       </c>
       <c r="D114">
+        <v>3331</v>
+      </c>
+      <c r="E114">
         <v>2916</v>
       </c>
-      <c r="E114">
-        <v>3331</v>
-      </c>
       <c r="F114">
-        <v>-0.013694</v>
+        <v>0.013694</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -29275,13 +29275,13 @@
         <v>0.002475241951704698</v>
       </c>
       <c r="D115">
+        <v>4648</v>
+      </c>
+      <c r="E115">
         <v>4380</v>
       </c>
-      <c r="E115">
-        <v>4648</v>
-      </c>
       <c r="F115">
-        <v>-0.008843</v>
+        <v>0.008843</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -29295,13 +29295,13 @@
         <v>0.0007241000322572698</v>
       </c>
       <c r="D116">
+        <v>4648</v>
+      </c>
+      <c r="E116">
         <v>4345</v>
       </c>
-      <c r="E116">
-        <v>4648</v>
-      </c>
       <c r="F116">
-        <v>-0.009998</v>
+        <v>0.009998</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -29315,13 +29315,13 @@
         <v>0.001775712273863315</v>
       </c>
       <c r="D117">
+        <v>3173</v>
+      </c>
+      <c r="E117">
         <v>2944</v>
       </c>
-      <c r="E117">
-        <v>3173</v>
-      </c>
       <c r="F117">
-        <v>-0.007557</v>
+        <v>0.007557</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -29335,13 +29335,13 @@
         <v>5.459895418726911E-07</v>
       </c>
       <c r="D118">
+        <v>3331</v>
+      </c>
+      <c r="E118">
         <v>2944</v>
       </c>
-      <c r="E118">
-        <v>3331</v>
-      </c>
       <c r="F118">
-        <v>-0.01277</v>
+        <v>0.01277</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -29375,13 +29375,13 @@
         <v>8.035828020733009E-08</v>
       </c>
       <c r="D120">
+        <v>3331</v>
+      </c>
+      <c r="E120">
         <v>2916</v>
       </c>
-      <c r="E120">
-        <v>3331</v>
-      </c>
       <c r="F120">
-        <v>-0.013694</v>
+        <v>0.013694</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -29395,13 +29395,13 @@
         <v>0.002475241951704698</v>
       </c>
       <c r="D121">
+        <v>4648</v>
+      </c>
+      <c r="E121">
         <v>4380</v>
       </c>
-      <c r="E121">
-        <v>4648</v>
-      </c>
       <c r="F121">
-        <v>-0.008843</v>
+        <v>0.008843</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -29415,13 +29415,13 @@
         <v>0.0007241000322572698</v>
       </c>
       <c r="D122">
+        <v>4648</v>
+      </c>
+      <c r="E122">
         <v>4345</v>
       </c>
-      <c r="E122">
-        <v>4648</v>
-      </c>
       <c r="F122">
-        <v>-0.009998</v>
+        <v>0.009998</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -29495,13 +29495,13 @@
         <v>6.684389099789228E-06</v>
       </c>
       <c r="D126">
+        <v>3542</v>
+      </c>
+      <c r="E126">
         <v>3184</v>
       </c>
-      <c r="E126">
-        <v>3542</v>
-      </c>
       <c r="F126">
-        <v>-0.011814</v>
+        <v>0.011814</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -29675,13 +29675,13 @@
         <v>4.006732530594967E-05</v>
       </c>
       <c r="D135">
+        <v>3205</v>
+      </c>
+      <c r="E135">
         <v>2896</v>
       </c>
-      <c r="E135">
-        <v>3205</v>
-      </c>
       <c r="F135">
-        <v>-0.010197</v>
+        <v>0.010197</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -29695,13 +29695,13 @@
         <v>1.533410984405984E-05</v>
       </c>
       <c r="D136">
+        <v>3223</v>
+      </c>
+      <c r="E136">
         <v>2896</v>
       </c>
-      <c r="E136">
-        <v>3223</v>
-      </c>
       <c r="F136">
-        <v>-0.010791</v>
+        <v>0.010791</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -29735,13 +29735,13 @@
         <v>0.00105956256275626</v>
       </c>
       <c r="D138">
+        <v>3223</v>
+      </c>
+      <c r="E138">
         <v>2980</v>
       </c>
-      <c r="E138">
-        <v>3223</v>
-      </c>
       <c r="F138">
-        <v>-0.008019</v>
+        <v>0.008019</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -29755,13 +29755,13 @@
         <v>5.431444554137577E-05</v>
       </c>
       <c r="D139">
+        <v>4434</v>
+      </c>
+      <c r="E139">
         <v>4076</v>
       </c>
-      <c r="E139">
-        <v>4434</v>
-      </c>
       <c r="F139">
-        <v>-0.011814</v>
+        <v>0.011814</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -29775,13 +29775,13 @@
         <v>8.411962890020938E-14</v>
       </c>
       <c r="D140">
+        <v>4770</v>
+      </c>
+      <c r="E140">
         <v>4076</v>
       </c>
-      <c r="E140">
-        <v>4770</v>
-      </c>
       <c r="F140">
-        <v>-0.022901</v>
+        <v>0.022901</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -29795,13 +29795,13 @@
         <v>3.46829734141593E-12</v>
       </c>
       <c r="D141">
+        <v>4720</v>
+      </c>
+      <c r="E141">
         <v>4076</v>
       </c>
-      <c r="E141">
-        <v>4720</v>
-      </c>
       <c r="F141">
-        <v>-0.021251</v>
+        <v>0.021251</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -29815,13 +29815,13 @@
         <v>0.000239519422022539</v>
       </c>
       <c r="D142">
+        <v>4770</v>
+      </c>
+      <c r="E142">
         <v>4434</v>
       </c>
-      <c r="E142">
-        <v>4770</v>
-      </c>
       <c r="F142">
-        <v>-0.011088</v>
+        <v>0.011088</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -29835,13 +29835,13 @@
         <v>0.001445952608414311</v>
       </c>
       <c r="D143">
+        <v>4720</v>
+      </c>
+      <c r="E143">
         <v>4434</v>
       </c>
-      <c r="E143">
-        <v>4720</v>
-      </c>
       <c r="F143">
-        <v>-0.009438</v>
+        <v>0.009438</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -29855,13 +29855,13 @@
         <v>0.0001177404056974595</v>
       </c>
       <c r="D144">
+        <v>3212</v>
+      </c>
+      <c r="E144">
         <v>2923</v>
       </c>
-      <c r="E144">
-        <v>3212</v>
-      </c>
       <c r="F144">
-        <v>-0.009537</v>
+        <v>0.009537</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -29875,13 +29875,13 @@
         <v>0.00047922915999301</v>
       </c>
       <c r="D145">
+        <v>3182</v>
+      </c>
+      <c r="E145">
         <v>2923</v>
       </c>
-      <c r="E145">
-        <v>3182</v>
-      </c>
       <c r="F145">
-        <v>-0.008547000000000001</v>
+        <v>0.008547000000000001</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -29915,13 +29915,13 @@
         <v>0.0003282697878262084</v>
       </c>
       <c r="D147">
+        <v>3182</v>
+      </c>
+      <c r="E147">
         <v>2915</v>
       </c>
-      <c r="E147">
-        <v>3182</v>
-      </c>
       <c r="F147">
-        <v>-0.008810999999999999</v>
+        <v>0.008810999999999999</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -29935,13 +29935,13 @@
         <v>6.497580406917291E-07</v>
       </c>
       <c r="D148">
+        <v>4729</v>
+      </c>
+      <c r="E148">
         <v>4269</v>
       </c>
-      <c r="E148">
-        <v>4729</v>
-      </c>
       <c r="F148">
-        <v>-0.01518</v>
+        <v>0.01518</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -29955,13 +29955,13 @@
         <v>9.483519372835052E-08</v>
       </c>
       <c r="D149">
+        <v>4765</v>
+      </c>
+      <c r="E149">
         <v>4269</v>
       </c>
-      <c r="E149">
-        <v>4765</v>
-      </c>
       <c r="F149">
-        <v>-0.016367</v>
+        <v>0.016367</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -29975,13 +29975,13 @@
         <v>5.214009713767594E-06</v>
       </c>
       <c r="D150">
+        <v>4729</v>
+      </c>
+      <c r="E150">
         <v>4309</v>
       </c>
-      <c r="E150">
-        <v>4729</v>
-      </c>
       <c r="F150">
-        <v>-0.01386</v>
+        <v>0.01386</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -29995,13 +29995,13 @@
         <v>8.875182662813536E-07</v>
       </c>
       <c r="D151">
+        <v>4765</v>
+      </c>
+      <c r="E151">
         <v>4309</v>
       </c>
-      <c r="E151">
-        <v>4765</v>
-      </c>
       <c r="F151">
-        <v>-0.015048</v>
+        <v>0.015048</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -30175,13 +30175,13 @@
         <v>9.677152823096687E-06</v>
       </c>
       <c r="D160">
+        <v>4858</v>
+      </c>
+      <c r="E160">
         <v>4445</v>
       </c>
-      <c r="E160">
-        <v>4858</v>
-      </c>
       <c r="F160">
-        <v>-0.013629</v>
+        <v>0.013629</v>
       </c>
     </row>
   </sheetData>
